--- a/医療文書作成件数.xlsx
+++ b/医療文書作成件数.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c68729c8098035d1/ドキュメント/自己管理/1.目標管理/プログラミング/Python/プロジェクト/MediDocsAnalyzer/要件定義/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yokam\PycharmProjects\MediDocsAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4D066CA252ABDACC10481CF9D4C1C873EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CC7E71-4825-4D6D-B7A2-067662094D88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B3B126-D673-4DAE-89BC-01B91F72AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3876" yWindow="300" windowWidth="18924" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="792" windowWidth="18924" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$L$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>内科</t>
   </si>
@@ -111,6 +111,13 @@
   </si>
   <si>
     <t>医療文書作成件数 2024年12月02日-2025年01月29日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植田</t>
+    <rPh sb="0" eb="2">
+      <t>ウエタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,7 +203,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -472,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -532,7 +550,7 @@
     </row>
     <row r="3" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -548,7 +566,7 @@
     </row>
     <row r="4" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -564,7 +582,7 @@
     </row>
     <row r="5" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -580,7 +598,7 @@
     </row>
     <row r="6" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -596,7 +614,7 @@
     </row>
     <row r="7" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -612,7 +630,7 @@
     </row>
     <row r="8" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -628,7 +646,7 @@
     </row>
     <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -644,7 +662,7 @@
     </row>
     <row r="10" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -660,7 +678,7 @@
     </row>
     <row r="11" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -676,7 +694,7 @@
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -692,7 +710,7 @@
     </row>
     <row r="13" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -708,7 +726,7 @@
     </row>
     <row r="14" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -724,7 +742,7 @@
     </row>
     <row r="15" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -738,12 +756,31 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
     <row r="17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
